--- a/Proyecto/Quinto Incremento/Documentos/(SnoutPoint) - SRS - Especificación de requerimientos de Software.xlsx
+++ b/Proyecto/Quinto Incremento/Documentos/(SnoutPoint) - SRS - Especificación de requerimientos de Software.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="9015" windowHeight="4305"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="9015" windowHeight="4305" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Portada e Historial de Cambios" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="764">
   <si>
     <t>Especificación de Requerimientos de Software (SRS)</t>
   </si>
@@ -1454,9 +1454,6 @@
     <t>RDF40</t>
   </si>
   <si>
-    <t>Diagrama de clases</t>
-  </si>
-  <si>
     <t>Si el sistema solicita el género de la mascota durante la creación de su registro</t>
   </si>
   <si>
@@ -1688,30 +1685,18 @@
     <t>RDF55</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagrama de secuencia </t>
-  </si>
-  <si>
     <t>RDF56</t>
   </si>
   <si>
-    <t>Modelo de despliegue</t>
-  </si>
-  <si>
     <t>RDF57</t>
   </si>
   <si>
     <t>RDF58</t>
   </si>
   <si>
-    <t>Modelo de componentes</t>
-  </si>
-  <si>
     <t>RDF59</t>
   </si>
   <si>
-    <t>Diagramas de procesos BPMN</t>
-  </si>
-  <si>
     <t>RDF60</t>
   </si>
   <si>
@@ -2478,6 +2463,36 @@
   </si>
   <si>
     <t>Contiene todos los posibles requerimientos levantados por el equipo de desarrollo, estos posteriormente pueden pasar a especificación o no.</t>
+  </si>
+  <si>
+    <t>23 de Abril de 2015</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>Finalizado para entregar</t>
+  </si>
+  <si>
+    <t>Modelo de Despliegue</t>
+  </si>
+  <si>
+    <t>Modelo de Componentes</t>
+  </si>
+  <si>
+    <t>Vista de Procesos Generales</t>
+  </si>
+  <si>
+    <t>Modelos/ Tablas</t>
+  </si>
+  <si>
+    <t>Interfaz de Usuario</t>
+  </si>
+  <si>
+    <t>Comportamiento del Sistema</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2608,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2696,8 +2711,20 @@
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF8D98C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2860,12 +2887,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3161,20 +3197,53 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3197,11 +3266,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3245,45 +3320,22 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3375,6 +3427,49 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 13" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 13" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3694,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3710,20 +3805,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,42 +3847,42 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="130" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -3803,7 +3898,7 @@
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -3844,16 +3939,24 @@
         <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>755</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,12 +3993,12 @@
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="107"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3903,11 +4006,11 @@
       <c r="B19" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="150" t="s">
-        <v>758</v>
-      </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="139" t="s">
+      <c r="C19" s="119" t="s">
+        <v>753</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="105" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="1"/>
@@ -3917,11 +4020,11 @@
       <c r="B20" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="139" t="s">
+      <c r="D20" s="118"/>
+      <c r="E20" s="105" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="1"/>
@@ -3932,10 +4035,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="117" t="s">
-        <v>616</v>
-      </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="139" t="s">
+        <v>611</v>
+      </c>
+      <c r="D21" s="118"/>
+      <c r="E21" s="105" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="1"/>
@@ -3948,8 +4051,8 @@
       <c r="C22" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="139" t="s">
+      <c r="D22" s="118"/>
+      <c r="E22" s="105" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="1"/>
@@ -3962,8 +4065,8 @@
       <c r="C23" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="139" t="s">
+      <c r="D23" s="118"/>
+      <c r="E23" s="105" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="1"/>
@@ -3976,8 +4079,8 @@
       <c r="C24" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="139" t="s">
+      <c r="D24" s="118"/>
+      <c r="E24" s="105" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="1"/>
@@ -3990,8 +4093,8 @@
       <c r="C25" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="139" t="s">
+      <c r="D25" s="118"/>
+      <c r="E25" s="105" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="1"/>
@@ -4004,8 +4107,8 @@
       <c r="C26" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="118"/>
+      <c r="E26" s="105" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="1"/>
@@ -4018,8 +4121,8 @@
       <c r="C27" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="139" t="s">
+      <c r="D27" s="118"/>
+      <c r="E27" s="105" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="1"/>
@@ -4032,8 +4135,8 @@
       <c r="C28" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="139" t="s">
+      <c r="D28" s="118"/>
+      <c r="E28" s="105" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="1"/>
@@ -4044,10 +4147,10 @@
         <v>46</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>617</v>
-      </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="139" t="s">
+        <v>612</v>
+      </c>
+      <c r="D29" s="118"/>
+      <c r="E29" s="105" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="1"/>
@@ -4060,8 +4163,8 @@
       <c r="C30" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="107"/>
-      <c r="E30" s="139" t="s">
+      <c r="D30" s="118"/>
+      <c r="E30" s="105" t="s">
         <v>47</v>
       </c>
       <c r="F30" s="1"/>
@@ -4074,15 +4177,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="C21:D21"/>
@@ -4093,6 +4187,15 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E19" location="'Levantamiento y Validación'!A1" display="Levantamiento"/>
@@ -4148,21 +4251,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="150" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="121"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134"/>
       <c r="N1" s="55"/>
       <c r="O1" s="55"/>
       <c r="P1" s="55"/>
@@ -6133,7 +6236,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17" t="s">
@@ -6163,7 +6266,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -6193,7 +6296,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -6223,7 +6326,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -6253,7 +6356,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -6283,7 +6386,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -6313,7 +6416,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -6341,7 +6444,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -6371,7 +6474,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -6401,7 +6504,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>407</v>
@@ -6431,7 +6534,7 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>407</v>
@@ -6463,7 +6566,7 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -6493,7 +6596,7 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -6521,7 +6624,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -6549,7 +6652,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -6577,7 +6680,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -6607,7 +6710,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -6637,7 +6740,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -6671,7 +6774,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -6701,7 +6804,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -6731,7 +6834,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -6761,7 +6864,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -6791,7 +6894,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -6821,7 +6924,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -6849,7 +6952,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -6879,7 +6982,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -6909,7 +7012,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -6939,7 +7042,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -6969,7 +7072,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -6999,7 +7102,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="57" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>407</v>
@@ -7029,7 +7132,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="57" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17" t="s">
@@ -7059,7 +7162,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B97" s="17"/>
       <c r="C97" s="17" t="s">
@@ -7089,7 +7192,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B98" s="17"/>
       <c r="C98" s="17" t="s">
@@ -7183,19 +7286,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="151" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="134"/>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
       <c r="N1" s="55"/>
@@ -7478,103 +7581,103 @@
         <v>416</v>
       </c>
       <c r="BM2" s="65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BN2" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BO2" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BP2" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BQ2" s="65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BR2" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BS2" s="65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BT2" s="65" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BU2" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="BV2" s="65" t="s">
         <v>488</v>
       </c>
-      <c r="BV2" s="65" t="s">
+      <c r="BW2" s="65" t="s">
         <v>489</v>
       </c>
-      <c r="BW2" s="65" t="s">
+      <c r="BX2" s="65" t="s">
         <v>490</v>
       </c>
-      <c r="BX2" s="65" t="s">
+      <c r="BY2" s="65" t="s">
         <v>491</v>
       </c>
-      <c r="BY2" s="65" t="s">
+      <c r="BZ2" s="65" t="s">
         <v>492</v>
       </c>
-      <c r="BZ2" s="65" t="s">
+      <c r="CA2" s="65" t="s">
         <v>493</v>
       </c>
-      <c r="CA2" s="65" t="s">
+      <c r="CB2" s="65" t="s">
         <v>494</v>
       </c>
-      <c r="CB2" s="65" t="s">
+      <c r="CC2" s="65" t="s">
+        <v>495</v>
+      </c>
+      <c r="CD2" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="CC2" s="65" t="s">
+      <c r="CE2" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="CF2" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="CD2" s="65" t="s">
+      <c r="CG2" s="65" t="s">
         <v>499</v>
       </c>
-      <c r="CE2" s="65" t="s">
+      <c r="CH2" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="CI2" s="65" t="s">
         <v>501</v>
       </c>
-      <c r="CF2" s="65" t="s">
-        <v>503</v>
-      </c>
-      <c r="CG2" s="65" t="s">
+      <c r="CJ2" s="65" t="s">
+        <v>502</v>
+      </c>
+      <c r="CK2" s="65" t="s">
         <v>504</v>
       </c>
-      <c r="CH2" s="65" t="s">
+      <c r="CL2" s="65" t="s">
         <v>505</v>
       </c>
-      <c r="CI2" s="65" t="s">
+      <c r="CM2" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="CJ2" s="65" t="s">
+      <c r="CN2" s="65" t="s">
         <v>507</v>
       </c>
-      <c r="CK2" s="65" t="s">
+      <c r="CO2" s="65" t="s">
+        <v>508</v>
+      </c>
+      <c r="CP2" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="CL2" s="65" t="s">
+      <c r="CQ2" s="65" t="s">
         <v>510</v>
       </c>
-      <c r="CM2" s="65" t="s">
+      <c r="CR2" s="65" t="s">
         <v>511</v>
       </c>
-      <c r="CN2" s="65" t="s">
+      <c r="CS2" s="65" t="s">
         <v>512</v>
-      </c>
-      <c r="CO2" s="65" t="s">
-        <v>513</v>
-      </c>
-      <c r="CP2" s="65" t="s">
-        <v>514</v>
-      </c>
-      <c r="CQ2" s="65" t="s">
-        <v>515</v>
-      </c>
-      <c r="CR2" s="65" t="s">
-        <v>516</v>
-      </c>
-      <c r="CS2" s="65" t="s">
-        <v>517</v>
       </c>
       <c r="CT2" s="65" t="s">
         <v>303</v>
@@ -14409,7 +14512,7 @@
     </row>
     <row r="66" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B66" s="69"/>
       <c r="C66" s="69"/>
@@ -14515,7 +14618,7 @@
     </row>
     <row r="67" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B67" s="69"/>
       <c r="C67" s="69"/>
@@ -14625,7 +14728,7 @@
     </row>
     <row r="68" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B68" s="69"/>
       <c r="C68" s="69"/>
@@ -14743,7 +14846,7 @@
     </row>
     <row r="69" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" s="69"/>
       <c r="C69" s="69"/>
@@ -14853,7 +14956,7 @@
     </row>
     <row r="70" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="69"/>
       <c r="C70" s="69"/>
@@ -14961,7 +15064,7 @@
     </row>
     <row r="71" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="69"/>
       <c r="C71" s="69"/>
@@ -15065,7 +15168,7 @@
     </row>
     <row r="72" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B72" s="69"/>
       <c r="C72" s="69"/>
@@ -15169,7 +15272,7 @@
     </row>
     <row r="73" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B73" s="69"/>
       <c r="C73" s="69"/>
@@ -15277,7 +15380,7 @@
     </row>
     <row r="74" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B74" s="69"/>
       <c r="C74" s="69"/>
@@ -15379,7 +15482,7 @@
     </row>
     <row r="75" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B75" s="69"/>
       <c r="C75" s="69"/>
@@ -15483,7 +15586,7 @@
     </row>
     <row r="76" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B76" s="69"/>
       <c r="C76" s="69"/>
@@ -15589,7 +15692,7 @@
     </row>
     <row r="77" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B77" s="69"/>
       <c r="C77" s="69"/>
@@ -15695,7 +15798,7 @@
     </row>
     <row r="78" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B78" s="69"/>
       <c r="C78" s="69"/>
@@ -15799,7 +15902,7 @@
     </row>
     <row r="79" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" s="69"/>
       <c r="C79" s="69"/>
@@ -15901,7 +16004,7 @@
     </row>
     <row r="80" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B80" s="69"/>
       <c r="C80" s="69"/>
@@ -16009,7 +16112,7 @@
     </row>
     <row r="81" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B81" s="69"/>
       <c r="C81" s="69"/>
@@ -16135,7 +16238,7 @@
     </row>
     <row r="82" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B82" s="69"/>
       <c r="C82" s="69"/>
@@ -16261,7 +16364,7 @@
     </row>
     <row r="83" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B83" s="69"/>
       <c r="C83" s="69"/>
@@ -16377,7 +16480,7 @@
     </row>
     <row r="84" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B84" s="69"/>
       <c r="C84" s="69"/>
@@ -16487,7 +16590,7 @@
     </row>
     <row r="85" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B85" s="69"/>
       <c r="C85" s="69"/>
@@ -16599,7 +16702,7 @@
     </row>
     <row r="86" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B86" s="69"/>
       <c r="C86" s="69"/>
@@ -16711,7 +16814,7 @@
     </row>
     <row r="87" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B87" s="69" t="s">
         <v>407</v>
@@ -16817,7 +16920,7 @@
     </row>
     <row r="88" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B88" s="69" t="s">
         <v>407</v>
@@ -16923,7 +17026,7 @@
     </row>
     <row r="89" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B89" s="69" t="s">
         <v>407</v>
@@ -17033,7 +17136,7 @@
     </row>
     <row r="90" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B90" s="69" t="s">
         <v>407</v>
@@ -17141,7 +17244,7 @@
     </row>
     <row r="91" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B91" s="69"/>
       <c r="C91" s="69"/>
@@ -17245,7 +17348,7 @@
     </row>
     <row r="92" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B92" s="69"/>
       <c r="C92" s="69"/>
@@ -17353,7 +17456,7 @@
     </row>
     <row r="93" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B93" s="69"/>
       <c r="C93" s="69"/>
@@ -17457,7 +17560,7 @@
     </row>
     <row r="94" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B94" s="69"/>
       <c r="C94" s="69"/>
@@ -17563,7 +17666,7 @@
     </row>
     <row r="95" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A95" s="57" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B95" s="69"/>
       <c r="C95" s="69"/>
@@ -17669,7 +17772,7 @@
     </row>
     <row r="96" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A96" s="57" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B96" s="69"/>
       <c r="C96" s="69"/>
@@ -17779,7 +17882,7 @@
     </row>
     <row r="97" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B97" s="69"/>
       <c r="C97" s="69"/>
@@ -17887,7 +17990,7 @@
     </row>
     <row r="98" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B98" s="69"/>
       <c r="C98" s="69"/>
@@ -18125,29 +18228,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="A1" s="151" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>409</v>
       </c>
       <c r="B2" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="C2" s="68" t="s">
-        <v>486</v>
-      </c>
       <c r="D2" s="68" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -18816,7 +18919,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
@@ -18825,7 +18928,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
@@ -18834,7 +18937,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
@@ -18843,7 +18946,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -18852,7 +18955,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -18861,7 +18964,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -18870,7 +18973,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B73" s="70" t="s">
         <v>407</v>
@@ -18887,7 +18990,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B74" s="70" t="s">
         <v>407</v>
@@ -18898,7 +19001,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" s="70" t="s">
         <v>407</v>
@@ -18909,7 +19012,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="70" t="s">
@@ -18922,7 +19025,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B77" s="70"/>
       <c r="C77" s="70" t="s">
@@ -18935,7 +19038,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -18944,7 +19047,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B79" s="70" t="s">
         <v>407</v>
@@ -18961,7 +19064,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -18970,7 +19073,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -18979,7 +19082,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -18988,7 +19091,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -18997,7 +19100,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -19006,7 +19109,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -19015,7 +19118,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -19024,7 +19127,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -19033,7 +19136,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -19042,7 +19145,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -19051,7 +19154,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="70" t="s">
@@ -19064,7 +19167,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="70" t="s">
@@ -19075,7 +19178,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B92" s="70" t="s">
         <v>407</v>
@@ -19086,7 +19189,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="70"/>
@@ -19097,7 +19200,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -19106,7 +19209,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="57" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -19115,7 +19218,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="57" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -19126,7 +19229,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -19137,7 +19240,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -19148,7 +19251,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -19170,53 +19273,58 @@
   <sheetPr>
     <tabColor rgb="FFF5C040"/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="121"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="156" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>497</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="157" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" s="157" t="s">
+        <v>758</v>
+      </c>
+      <c r="D2" s="157" t="s">
+        <v>759</v>
+      </c>
+      <c r="E2" s="157" t="s">
+        <v>760</v>
+      </c>
+      <c r="F2" s="158" t="s">
+        <v>762</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>63</v>
       </c>
@@ -19224,9 +19332,10 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="154"/>
+      <c r="G3" s="155"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>96</v>
       </c>
@@ -19234,9 +19343,10 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="154"/>
+      <c r="G4" s="155"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>105</v>
       </c>
@@ -19244,9 +19354,10 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>115</v>
       </c>
@@ -19254,9 +19365,10 @@
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>167</v>
       </c>
@@ -19264,9 +19376,10 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="154"/>
+      <c r="G7" s="155"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>179</v>
       </c>
@@ -19274,9 +19387,10 @@
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>182</v>
       </c>
@@ -19284,9 +19398,10 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>193</v>
       </c>
@@ -19294,9 +19409,10 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="154"/>
+      <c r="G10" s="155"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>196</v>
       </c>
@@ -19304,9 +19420,10 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>209</v>
       </c>
@@ -19314,9 +19431,10 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="154"/>
+      <c r="G12" s="155"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>214</v>
       </c>
@@ -19324,9 +19442,10 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="154"/>
+      <c r="G13" s="155"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>218</v>
       </c>
@@ -19334,9 +19453,10 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="154"/>
+      <c r="G14" s="155"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>224</v>
       </c>
@@ -19344,9 +19464,10 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="154"/>
+      <c r="G15" s="155"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>235</v>
       </c>
@@ -19354,9 +19475,10 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="154"/>
+      <c r="G16" s="155"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>244</v>
       </c>
@@ -19364,9 +19486,10 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>252</v>
       </c>
@@ -19374,9 +19497,10 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="154"/>
+      <c r="G18" s="155"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>258</v>
       </c>
@@ -19384,9 +19508,10 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="154"/>
+      <c r="G19" s="155"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>262</v>
       </c>
@@ -19394,9 +19519,10 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="154"/>
+      <c r="G20" s="155"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>266</v>
       </c>
@@ -19404,9 +19530,10 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="154"/>
+      <c r="G21" s="155"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>277</v>
       </c>
@@ -19414,9 +19541,10 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>283</v>
       </c>
@@ -19424,9 +19552,10 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="154"/>
+      <c r="G23" s="155"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>286</v>
       </c>
@@ -19434,9 +19563,10 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="154"/>
+      <c r="G24" s="155"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>293</v>
       </c>
@@ -19444,9 +19574,10 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="154"/>
+      <c r="G25" s="155"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>303</v>
       </c>
@@ -19454,9 +19585,10 @@
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="154"/>
+      <c r="G26" s="155"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
@@ -19464,18 +19596,20 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="154"/>
+      <c r="G27" s="155"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>124</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="154"/>
+      <c r="G28" s="155"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>140</v>
       </c>
@@ -19483,9 +19617,10 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="154"/>
+      <c r="G29" s="155"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>152</v>
       </c>
@@ -19493,9 +19628,10 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="154"/>
+      <c r="G30" s="155"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>82</v>
       </c>
@@ -19503,9 +19639,10 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>114</v>
       </c>
@@ -19513,9 +19650,10 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>163</v>
       </c>
@@ -19523,9 +19661,10 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="154"/>
+      <c r="G33" s="155"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>173</v>
       </c>
@@ -19533,9 +19672,10 @@
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>184</v>
       </c>
@@ -19543,9 +19683,10 @@
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="154"/>
+      <c r="G35" s="155"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>189</v>
       </c>
@@ -19553,9 +19694,10 @@
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="154"/>
+      <c r="G36" s="155"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>197</v>
       </c>
@@ -19563,9 +19705,10 @@
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="154"/>
+      <c r="G37" s="155"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>212</v>
       </c>
@@ -19573,9 +19716,10 @@
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="154"/>
+      <c r="G38" s="155"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>222</v>
       </c>
@@ -19583,9 +19727,10 @@
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>85</v>
       </c>
@@ -19593,9 +19738,10 @@
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="154"/>
+      <c r="G40" s="155"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>98</v>
       </c>
@@ -19603,9 +19749,10 @@
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="154"/>
+      <c r="G41" s="155"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>110</v>
       </c>
@@ -19613,9 +19760,10 @@
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="154"/>
+      <c r="G42" s="155"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>119</v>
       </c>
@@ -19623,9 +19771,10 @@
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="154"/>
+      <c r="G43" s="155"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>126</v>
       </c>
@@ -19633,9 +19782,10 @@
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="154"/>
+      <c r="G44" s="155"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>131</v>
       </c>
@@ -19643,9 +19793,10 @@
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="154"/>
+      <c r="G45" s="155"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>135</v>
       </c>
@@ -19653,9 +19804,10 @@
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="154"/>
+      <c r="G46" s="155"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>145</v>
       </c>
@@ -19663,9 +19815,10 @@
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="154"/>
+      <c r="G47" s="155"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>122</v>
       </c>
@@ -19673,9 +19826,10 @@
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="154"/>
+      <c r="G48" s="155"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>128</v>
       </c>
@@ -19683,9 +19837,10 @@
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="154"/>
+      <c r="G49" s="155"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>138</v>
       </c>
@@ -19693,9 +19848,10 @@
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="154"/>
+      <c r="G50" s="155"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>144</v>
       </c>
@@ -19703,9 +19859,10 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="154"/>
+      <c r="G51" s="155"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>155</v>
       </c>
@@ -19713,9 +19870,10 @@
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="154"/>
+      <c r="G52" s="155"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>159</v>
       </c>
@@ -19723,9 +19881,10 @@
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="154"/>
+      <c r="G53" s="155"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>169</v>
       </c>
@@ -19733,9 +19892,10 @@
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="154"/>
+      <c r="G54" s="155"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>177</v>
       </c>
@@ -19743,9 +19903,10 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="154"/>
+      <c r="G55" s="155"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>298</v>
       </c>
@@ -19753,9 +19914,10 @@
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="154"/>
+      <c r="G56" s="155"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>353</v>
       </c>
@@ -19763,9 +19925,10 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="154"/>
+      <c r="G57" s="155"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>364</v>
       </c>
@@ -19773,9 +19936,10 @@
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="154"/>
+      <c r="G58" s="155"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>374</v>
       </c>
@@ -19783,9 +19947,10 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="154"/>
+      <c r="G59" s="155"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>385</v>
       </c>
@@ -19793,9 +19958,10 @@
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="154"/>
+      <c r="G60" s="155"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>394</v>
       </c>
@@ -19803,9 +19969,10 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="154"/>
+      <c r="G61" s="155"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>401</v>
       </c>
@@ -19813,9 +19980,10 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="154"/>
+      <c r="G62" s="155"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>405</v>
       </c>
@@ -19823,9 +19991,10 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="154"/>
+      <c r="G63" s="155"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
         <v>410</v>
       </c>
@@ -19833,9 +20002,10 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="154"/>
+      <c r="G64" s="155"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
         <v>413</v>
       </c>
@@ -19843,9 +20013,10 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="154"/>
+      <c r="G65" s="155"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>416</v>
       </c>
@@ -19853,341 +20024,375 @@
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="154"/>
+      <c r="G66" s="155"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="154"/>
+      <c r="G67" s="155"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="154"/>
+      <c r="G68" s="155"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="154"/>
+      <c r="G69" s="155"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="154"/>
+      <c r="G70" s="155"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="154"/>
+      <c r="G71" s="155"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="154"/>
+      <c r="G72" s="155"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="154"/>
+      <c r="G73" s="155"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="154"/>
+      <c r="G74" s="155"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="154"/>
+      <c r="G75" s="155"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="154"/>
+      <c r="G76" s="155"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="154"/>
+      <c r="G77" s="155"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="154"/>
+      <c r="G78" s="155"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="154"/>
+      <c r="G79" s="155"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="154"/>
+      <c r="G80" s="155"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="154"/>
+      <c r="G81" s="155"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="154"/>
+      <c r="G82" s="155"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="154"/>
+      <c r="G83" s="155"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="154"/>
+      <c r="G84" s="155"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="154"/>
+      <c r="G85" s="155"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="154"/>
+      <c r="G86" s="155"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="154"/>
+      <c r="G87" s="155"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="154"/>
+      <c r="G88" s="155"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="154"/>
+      <c r="G89" s="155"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="154"/>
+      <c r="G90" s="155"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="154"/>
+      <c r="G91" s="155"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="154"/>
+      <c r="G92" s="155"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="154"/>
+      <c r="G93" s="155"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="154"/>
+      <c r="G94" s="155"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="57" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="154"/>
+      <c r="G95" s="155"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="57" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="154"/>
+      <c r="G96" s="155"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="154"/>
+      <c r="G97" s="155"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="154"/>
+      <c r="G98" s="155"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
+      <c r="F99" s="154"/>
+      <c r="G99" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20221,9 +20426,9 @@
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -20253,37 +20458,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="127"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -20324,7 +20529,7 @@
         <v>81</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -20371,8 +20576,8 @@
     </row>
     <row r="7" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
-      <c r="B7" s="141" t="s">
-        <v>709</v>
+      <c r="B7" s="107" t="s">
+        <v>704</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>220</v>
@@ -20473,8 +20678,8 @@
       <c r="G9" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="H9" s="140" t="s">
-        <v>618</v>
+      <c r="H9" s="106" t="s">
+        <v>613</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>220</v>
@@ -20497,8 +20702,8 @@
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
-      <c r="B10" s="141" t="s">
-        <v>619</v>
+      <c r="B10" s="107" t="s">
+        <v>614</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>220</v>
@@ -20509,8 +20714,8 @@
       <c r="E10" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="140" t="s">
-        <v>620</v>
+      <c r="F10" s="106" t="s">
+        <v>615</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>220</v>
@@ -20557,8 +20762,8 @@
       <c r="G11" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="140" t="s">
-        <v>621</v>
+      <c r="H11" s="106" t="s">
+        <v>616</v>
       </c>
       <c r="I11" s="40" t="s">
         <v>248</v>
@@ -20767,8 +20972,8 @@
       <c r="G16" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H16" s="140" t="s">
-        <v>622</v>
+      <c r="H16" s="106" t="s">
+        <v>617</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>220</v>
@@ -20893,8 +21098,8 @@
       <c r="G19" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="140" t="s">
-        <v>623</v>
+      <c r="H19" s="106" t="s">
+        <v>618</v>
       </c>
       <c r="I19" s="40" t="s">
         <v>220</v>
@@ -20968,8 +21173,8 @@
       <c r="D21" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="E21" s="140" t="s">
-        <v>624</v>
+      <c r="E21" s="106" t="s">
+        <v>619</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>220</v>
@@ -20977,8 +21182,8 @@
       <c r="G21" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H21" s="140" t="s">
-        <v>625</v>
+      <c r="H21" s="106" t="s">
+        <v>620</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>281</v>
@@ -21001,8 +21206,8 @@
     </row>
     <row r="22" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
-      <c r="B22" s="141" t="s">
-        <v>626</v>
+      <c r="B22" s="107" t="s">
+        <v>621</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>220</v>
@@ -21019,8 +21224,8 @@
       <c r="G22" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H22" s="140" t="s">
-        <v>627</v>
+      <c r="H22" s="106" t="s">
+        <v>622</v>
       </c>
       <c r="I22" s="48" t="s">
         <v>282</v>
@@ -21271,8 +21476,8 @@
       <c r="G28" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="140" t="s">
-        <v>628</v>
+      <c r="H28" s="106" t="s">
+        <v>623</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>220</v>
@@ -21337,8 +21542,8 @@
     </row>
     <row r="30" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
-      <c r="B30" s="141" t="s">
-        <v>629</v>
+      <c r="B30" s="107" t="s">
+        <v>624</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>220</v>
@@ -21355,8 +21560,8 @@
       <c r="G30" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H30" s="140" t="s">
-        <v>630</v>
+      <c r="H30" s="106" t="s">
+        <v>625</v>
       </c>
       <c r="I30" s="40" t="s">
         <v>220</v>
@@ -21421,8 +21626,8 @@
     </row>
     <row r="32" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
-      <c r="B32" s="141" t="s">
-        <v>631</v>
+      <c r="B32" s="107" t="s">
+        <v>626</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>220</v>
@@ -21487,8 +21692,8 @@
       <c r="I33" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J33" s="140" t="s">
-        <v>632</v>
+      <c r="J33" s="106" t="s">
+        <v>627</v>
       </c>
       <c r="K33" s="40" t="s">
         <v>220</v>
@@ -21523,8 +21728,8 @@
       <c r="G34" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H34" s="140" t="s">
-        <v>633</v>
+      <c r="H34" s="106" t="s">
+        <v>628</v>
       </c>
       <c r="I34" s="40" t="s">
         <v>220</v>
@@ -21565,8 +21770,8 @@
       <c r="G35" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H35" s="140" t="s">
-        <v>634</v>
+      <c r="H35" s="106" t="s">
+        <v>629</v>
       </c>
       <c r="I35" s="40" t="s">
         <v>220</v>
@@ -21589,8 +21794,8 @@
     </row>
     <row r="36" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
-      <c r="B36" s="141" t="s">
-        <v>635</v>
+      <c r="B36" s="107" t="s">
+        <v>630</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>220</v>
@@ -21607,8 +21812,8 @@
       <c r="G36" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H36" s="140" t="s">
-        <v>636</v>
+      <c r="H36" s="106" t="s">
+        <v>631</v>
       </c>
       <c r="I36" s="40" t="s">
         <v>220</v>
@@ -21631,8 +21836,8 @@
     </row>
     <row r="37" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
-      <c r="B37" s="141" t="s">
-        <v>637</v>
+      <c r="B37" s="107" t="s">
+        <v>632</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>220</v>
@@ -21775,8 +21980,8 @@
       <c r="G40" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H40" s="140" t="s">
-        <v>638</v>
+      <c r="H40" s="106" t="s">
+        <v>633</v>
       </c>
       <c r="I40" s="40" t="s">
         <v>220</v>
@@ -21841,8 +22046,8 @@
     </row>
     <row r="42" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
-      <c r="B42" s="141" t="s">
-        <v>639</v>
+      <c r="B42" s="107" t="s">
+        <v>634</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>220</v>
@@ -21859,8 +22064,8 @@
       <c r="G42" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H42" s="140" t="s">
-        <v>640</v>
+      <c r="H42" s="106" t="s">
+        <v>635</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>220</v>
@@ -21883,8 +22088,8 @@
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
-      <c r="B43" s="141" t="s">
-        <v>641</v>
+      <c r="B43" s="107" t="s">
+        <v>636</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>220</v>
@@ -21967,8 +22172,8 @@
     </row>
     <row r="45" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46"/>
-      <c r="B45" s="141" t="s">
-        <v>642</v>
+      <c r="B45" s="107" t="s">
+        <v>637</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>220</v>
@@ -21985,8 +22190,8 @@
       <c r="G45" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H45" s="140" t="s">
-        <v>643</v>
+      <c r="H45" s="106" t="s">
+        <v>638</v>
       </c>
       <c r="I45" s="40" t="s">
         <v>220</v>
@@ -22009,8 +22214,8 @@
     </row>
     <row r="46" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46"/>
-      <c r="B46" s="141" t="s">
-        <v>644</v>
+      <c r="B46" s="107" t="s">
+        <v>639</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>220</v>
@@ -22069,8 +22274,8 @@
       <c r="G47" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H47" s="140" t="s">
-        <v>645</v>
+      <c r="H47" s="106" t="s">
+        <v>640</v>
       </c>
       <c r="I47" s="40" t="s">
         <v>220</v>
@@ -22111,8 +22316,8 @@
       <c r="G48" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H48" s="140" t="s">
-        <v>646</v>
+      <c r="H48" s="106" t="s">
+        <v>641</v>
       </c>
       <c r="I48" s="40" t="s">
         <v>220</v>
@@ -22279,8 +22484,8 @@
       <c r="G52" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H52" s="140" t="s">
-        <v>647</v>
+      <c r="H52" s="106" t="s">
+        <v>642</v>
       </c>
       <c r="I52" s="40" t="s">
         <v>220</v>
@@ -22453,7 +22658,7 @@
       <c r="I56" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J56" s="140" t="s">
+      <c r="J56" s="106" t="s">
         <v>330</v>
       </c>
       <c r="K56" s="40" t="s">
@@ -22489,8 +22694,8 @@
       <c r="G57" s="40" t="s">
         <v>319</v>
       </c>
-      <c r="H57" s="140" t="s">
-        <v>648</v>
+      <c r="H57" s="106" t="s">
+        <v>643</v>
       </c>
       <c r="I57" s="40" t="s">
         <v>220</v>
@@ -22531,8 +22736,8 @@
       <c r="G58" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="140" t="s">
-        <v>649</v>
+      <c r="H58" s="106" t="s">
+        <v>644</v>
       </c>
       <c r="I58" s="40" t="s">
         <v>220</v>
@@ -22699,8 +22904,8 @@
       <c r="G62" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H62" s="140" t="s">
-        <v>650</v>
+      <c r="H62" s="106" t="s">
+        <v>645</v>
       </c>
       <c r="I62" s="40" t="s">
         <v>220</v>
@@ -22723,8 +22928,8 @@
     </row>
     <row r="63" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="46"/>
-      <c r="B63" s="141" t="s">
-        <v>651</v>
+      <c r="B63" s="107" t="s">
+        <v>646</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>220</v>
@@ -22825,13 +23030,13 @@
       <c r="G65" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H65" s="140" t="s">
-        <v>652</v>
+      <c r="H65" s="106" t="s">
+        <v>647</v>
       </c>
       <c r="I65" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J65" s="140" t="s">
+      <c r="J65" s="106" t="s">
         <v>234</v>
       </c>
       <c r="K65" s="40" t="s">
@@ -22891,8 +23096,8 @@
     </row>
     <row r="67" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="46"/>
-      <c r="B67" s="141" t="s">
-        <v>653</v>
+      <c r="B67" s="107" t="s">
+        <v>648</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>220</v>
@@ -22933,8 +23138,8 @@
     </row>
     <row r="68" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="46"/>
-      <c r="B68" s="141" t="s">
-        <v>654</v>
+      <c r="B68" s="107" t="s">
+        <v>649</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>220</v>
@@ -22993,8 +23198,8 @@
       <c r="G69" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H69" s="140" t="s">
-        <v>655</v>
+      <c r="H69" s="106" t="s">
+        <v>650</v>
       </c>
       <c r="I69" s="40" t="s">
         <v>220</v>
@@ -23194,8 +23399,8 @@
       <c r="D74" s="40" t="s">
         <v>376</v>
       </c>
-      <c r="E74" s="140" t="s">
-        <v>656</v>
+      <c r="E74" s="106" t="s">
+        <v>651</v>
       </c>
       <c r="F74" s="40" t="s">
         <v>220</v>
@@ -23227,8 +23432,8 @@
     </row>
     <row r="75" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
-      <c r="B75" s="142" t="s">
-        <v>657</v>
+      <c r="B75" s="108" t="s">
+        <v>652</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>220</v>
@@ -23236,8 +23441,8 @@
       <c r="D75" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="E75" s="140" t="s">
-        <v>658</v>
+      <c r="E75" s="106" t="s">
+        <v>653</v>
       </c>
       <c r="F75" s="40" t="s">
         <v>220</v>
@@ -23353,8 +23558,8 @@
     </row>
     <row r="78" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="46"/>
-      <c r="B78" s="141" t="s">
-        <v>659</v>
+      <c r="B78" s="107" t="s">
+        <v>654</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>388</v>
@@ -23371,8 +23576,8 @@
       <c r="G78" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="H78" s="140" t="s">
-        <v>660</v>
+      <c r="H78" s="106" t="s">
+        <v>655</v>
       </c>
       <c r="I78" s="40" t="s">
         <v>232</v>
@@ -23455,14 +23660,14 @@
       <c r="G80" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H80" s="140" t="s">
-        <v>661</v>
+      <c r="H80" s="106" t="s">
+        <v>656</v>
       </c>
       <c r="I80" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J80" s="140" t="s">
-        <v>632</v>
+      <c r="J80" s="106" t="s">
+        <v>627</v>
       </c>
       <c r="K80" s="40" t="s">
         <v>220</v>
@@ -23479,8 +23684,8 @@
     </row>
     <row r="81" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="46"/>
-      <c r="B81" s="141" t="s">
-        <v>662</v>
+      <c r="B81" s="107" t="s">
+        <v>657</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>220</v>
@@ -23497,13 +23702,13 @@
       <c r="G81" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H81" s="140" t="s">
-        <v>663</v>
+      <c r="H81" s="106" t="s">
+        <v>658</v>
       </c>
       <c r="I81" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J81" s="140" t="s">
+      <c r="J81" s="106" t="s">
         <v>330</v>
       </c>
       <c r="K81" s="40" t="s">
@@ -23539,8 +23744,8 @@
       <c r="G82" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H82" s="140" t="s">
-        <v>664</v>
+      <c r="H82" s="106" t="s">
+        <v>659</v>
       </c>
       <c r="I82" s="40" t="s">
         <v>220</v>
@@ -23582,13 +23787,13 @@
         <v>220</v>
       </c>
       <c r="H83" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="I83" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="J83" s="60" t="s">
         <v>421</v>
-      </c>
-      <c r="I83" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="J83" s="60" t="s">
-        <v>422</v>
       </c>
       <c r="K83" s="60" t="s">
         <v>220</v>
@@ -23624,7 +23829,7 @@
         <v>220</v>
       </c>
       <c r="H84" s="60" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I84" s="60" t="s">
         <v>220</v>
@@ -23647,8 +23852,8 @@
     </row>
     <row r="85" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="46"/>
-      <c r="B85" s="143" t="s">
-        <v>665</v>
+      <c r="B85" s="109" t="s">
+        <v>660</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>220</v>
@@ -23665,8 +23870,8 @@
       <c r="G85" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H85" s="144" t="s">
-        <v>666</v>
+      <c r="H85" s="110" t="s">
+        <v>661</v>
       </c>
       <c r="I85" s="18" t="s">
         <v>220</v>
@@ -23689,14 +23894,14 @@
     </row>
     <row r="86" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37"/>
-      <c r="B86" s="141" t="s">
-        <v>667</v>
+      <c r="B86" s="107" t="s">
+        <v>662</v>
       </c>
       <c r="C86" s="40" t="s">
         <v>220</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E86" s="40" t="s">
         <v>220</v>
@@ -23708,7 +23913,7 @@
         <v>220</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I86" s="40" t="s">
         <v>220</v>
@@ -23723,20 +23928,20 @@
         <v>220</v>
       </c>
       <c r="M86" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N86" s="40"/>
     </row>
     <row r="87" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37"/>
       <c r="B87" s="39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>220</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E87" s="40" t="s">
         <v>220</v>
@@ -23748,7 +23953,7 @@
         <v>220</v>
       </c>
       <c r="H87" s="40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I87" s="40" t="s">
         <v>220</v>
@@ -23763,60 +23968,60 @@
         <v>220</v>
       </c>
       <c r="M87" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N87" s="40"/>
     </row>
     <row r="88" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="46"/>
       <c r="B88" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="106" t="s">
+        <v>663</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G88" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="C88" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="D88" s="140" t="s">
-        <v>668</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F88" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="G88" s="40" t="s">
+      <c r="H88" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="I88" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="J88" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="H88" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="I88" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="J88" s="40" t="s">
+      <c r="K88" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="K88" s="40" t="s">
-        <v>433</v>
-      </c>
       <c r="L88" s="40" t="s">
         <v>220</v>
       </c>
       <c r="M88" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N88" s="40"/>
     </row>
     <row r="89" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="46"/>
-      <c r="B89" s="141" t="s">
-        <v>669</v>
+      <c r="B89" s="107" t="s">
+        <v>664</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="140" t="s">
-        <v>670</v>
+      <c r="D89" s="106" t="s">
+        <v>665</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>220</v>
@@ -23828,13 +24033,13 @@
         <v>220</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I89" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J89" s="140" t="s">
-        <v>671</v>
+      <c r="J89" s="106" t="s">
+        <v>666</v>
       </c>
       <c r="K89" s="40" t="s">
         <v>220</v>
@@ -23843,20 +24048,20 @@
         <v>220</v>
       </c>
       <c r="M89" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N89" s="40"/>
     </row>
     <row r="90" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="46"/>
       <c r="B90" s="39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>319</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>232</v>
@@ -23868,14 +24073,14 @@
         <v>220</v>
       </c>
       <c r="H90" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I90" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="J90" s="40" t="s">
         <v>438</v>
       </c>
-      <c r="I90" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="J90" s="40" t="s">
-        <v>439</v>
-      </c>
       <c r="K90" s="40" t="s">
         <v>220</v>
       </c>
@@ -23883,32 +24088,32 @@
         <v>220</v>
       </c>
       <c r="M90" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N90" s="40"/>
     </row>
     <row r="91" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="46"/>
       <c r="B91" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G91" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H91" s="40" t="s">
         <v>440</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="D91" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F91" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="G91" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H91" s="40" t="s">
-        <v>441</v>
       </c>
       <c r="I91" s="40" t="s">
         <v>220</v>
@@ -23921,14 +24126,14 @@
         <v>220</v>
       </c>
       <c r="M91" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N91" s="40"/>
     </row>
     <row r="92" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="46"/>
       <c r="B92" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>220</v>
@@ -23945,128 +24150,128 @@
       <c r="G92" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="H92" s="140" t="s">
-        <v>672</v>
+      <c r="H92" s="106" t="s">
+        <v>667</v>
       </c>
       <c r="I92" s="40" t="s">
         <v>232</v>
       </c>
       <c r="J92" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="K92" s="40" t="s">
         <v>443</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>444</v>
       </c>
       <c r="L92" s="40" t="s">
         <v>232</v>
       </c>
       <c r="M92" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N92" s="40"/>
     </row>
     <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="46"/>
-      <c r="B93" s="141" t="s">
-        <v>673</v>
+      <c r="B93" s="107" t="s">
+        <v>668</v>
       </c>
       <c r="C93" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="E93" s="106" t="s">
+        <v>669</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H93" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="D93" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E93" s="140" t="s">
-        <v>674</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="G93" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="H93" s="40" t="s">
-        <v>446</v>
-      </c>
       <c r="I93" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="J93" s="140" t="s">
-        <v>632</v>
+      <c r="J93" s="106" t="s">
+        <v>627</v>
       </c>
       <c r="K93" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="L93" s="140" t="s">
-        <v>675</v>
+      <c r="L93" s="106" t="s">
+        <v>670</v>
       </c>
       <c r="M93" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N93" s="40"/>
     </row>
     <row r="94" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="46"/>
-      <c r="B94" s="143" t="s">
-        <v>676</v>
+      <c r="B94" s="109" t="s">
+        <v>671</v>
       </c>
       <c r="C94" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>449</v>
-      </c>
       <c r="E94" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="F94" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="G94" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H94" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="G94" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H94" s="18" t="s">
+      <c r="I94" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="I94" s="18" t="s">
+      <c r="J94" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="J94" s="18" t="s">
+      <c r="K94" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L94" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="K94" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="L94" s="18" t="s">
-        <v>456</v>
-      </c>
       <c r="M94" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N94" s="18"/>
     </row>
     <row r="95" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="46"/>
       <c r="B95" s="64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C95" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="E95" s="110" t="s">
+        <v>672</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G95" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="E95" s="144" t="s">
-        <v>677</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="H95" s="144" t="s">
-        <v>678</v>
+      <c r="H95" s="110" t="s">
+        <v>673</v>
       </c>
       <c r="I95" s="18" t="s">
         <v>220</v>
@@ -24075,44 +24280,44 @@
         <v>372</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L95" s="18" t="s">
         <v>220</v>
       </c>
       <c r="M95" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N95" s="18"/>
     </row>
     <row r="96" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="46"/>
       <c r="B96" s="66" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D96" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H96" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H96" s="18" t="s">
+      <c r="I96" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="J96" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="J96" s="18" t="s">
-        <v>471</v>
       </c>
       <c r="K96" s="18" t="s">
         <v>232</v>
@@ -24121,39 +24326,39 @@
         <v>232</v>
       </c>
       <c r="M96" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N96" s="18"/>
     </row>
     <row r="97" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="46"/>
       <c r="B97" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="C97" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" s="18" t="s">
+      <c r="E97" s="110" t="s">
+        <v>674</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H97" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="E97" s="144" t="s">
-        <v>679</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H97" s="18" t="s">
+      <c r="I97" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="I97" s="18" t="s">
+      <c r="J97" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="J97" s="18" t="s">
-        <v>477</v>
-      </c>
       <c r="K97" s="18" t="s">
         <v>220</v>
       </c>
@@ -24161,14 +24366,14 @@
         <v>220</v>
       </c>
       <c r="M97" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N97" s="18"/>
     </row>
     <row r="98" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="46"/>
       <c r="B98" s="64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>232</v>
@@ -24185,14 +24390,14 @@
       <c r="G98" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H98" s="144" t="s">
-        <v>680</v>
+      <c r="H98" s="110" t="s">
+        <v>675</v>
       </c>
       <c r="I98" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="J98" s="144" t="s">
-        <v>681</v>
+      <c r="J98" s="110" t="s">
+        <v>676</v>
       </c>
       <c r="K98" s="18" t="s">
         <v>232</v>
@@ -24201,14 +24406,14 @@
         <v>232</v>
       </c>
       <c r="M98" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N98" s="18"/>
     </row>
     <row r="99" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="46"/>
       <c r="B99" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>232</v>
@@ -24217,7 +24422,7 @@
         <v>232</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F99" s="18" t="s">
         <v>232</v>
@@ -24225,30 +24430,30 @@
       <c r="G99" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H99" s="144" t="s">
-        <v>682</v>
+      <c r="H99" s="110" t="s">
+        <v>677</v>
       </c>
       <c r="I99" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="J99" s="144" t="s">
-        <v>683</v>
+      <c r="J99" s="110" t="s">
+        <v>678</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L99" s="18" t="s">
         <v>232</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N99" s="18"/>
     </row>
     <row r="100" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="46"/>
       <c r="B100" s="64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>232</v>
@@ -24265,14 +24470,14 @@
       <c r="G100" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H100" s="144" t="s">
-        <v>682</v>
+      <c r="H100" s="110" t="s">
+        <v>677</v>
       </c>
       <c r="I100" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="J100" s="144" t="s">
-        <v>683</v>
+      <c r="J100" s="110" t="s">
+        <v>678</v>
       </c>
       <c r="K100" s="18" t="s">
         <v>232</v>
@@ -24281,23 +24486,23 @@
         <v>232</v>
       </c>
       <c r="M100" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N100" s="18"/>
     </row>
     <row r="101" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="46"/>
       <c r="B101" s="64" t="s">
-        <v>518</v>
-      </c>
-      <c r="C101" s="144" t="s">
-        <v>684</v>
+        <v>513</v>
+      </c>
+      <c r="C101" s="110" t="s">
+        <v>679</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E101" s="144" t="s">
-        <v>685</v>
+      <c r="E101" s="110" t="s">
+        <v>680</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>232</v>
@@ -24306,29 +24511,29 @@
         <v>232</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="I101" s="18" t="s">
         <v>232</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K101" s="18" t="s">
         <v>232</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N101" s="18"/>
     </row>
     <row r="102" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="46"/>
       <c r="B102" s="64" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>232</v>
@@ -24345,39 +24550,39 @@
       <c r="G102" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H102" s="144" t="s">
-        <v>686</v>
+      <c r="H102" s="110" t="s">
+        <v>681</v>
       </c>
       <c r="I102" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="J102" s="144" t="s">
-        <v>687</v>
+      <c r="J102" s="110" t="s">
+        <v>682</v>
       </c>
       <c r="K102" s="18" t="s">
         <v>232</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M102" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N102" s="18"/>
     </row>
     <row r="103" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="46"/>
-      <c r="B103" s="145" t="s">
-        <v>688</v>
+      <c r="B103" s="111" t="s">
+        <v>683</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>232</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>232</v>
@@ -24385,36 +24590,36 @@
       <c r="G103" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="H103" s="144" t="s">
-        <v>660</v>
+      <c r="H103" s="110" t="s">
+        <v>655</v>
       </c>
       <c r="I103" s="18" t="s">
         <v>232</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K103" s="18" t="s">
         <v>232</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M103" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N103" s="18"/>
     </row>
     <row r="104" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="46"/>
-      <c r="B104" s="145" t="s">
-        <v>689</v>
+      <c r="B104" s="111" t="s">
+        <v>684</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>220</v>
@@ -24431,8 +24636,8 @@
       <c r="I104" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J104" s="144" t="s">
-        <v>690</v>
+      <c r="J104" s="110" t="s">
+        <v>685</v>
       </c>
       <c r="K104" s="18" t="s">
         <v>220</v>
@@ -24441,14 +24646,14 @@
         <v>220</v>
       </c>
       <c r="M104" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N104" s="18"/>
     </row>
     <row r="105" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="46"/>
       <c r="B105" s="64" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>220</v>
@@ -24462,17 +24667,17 @@
       <c r="F105" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G105" s="144" t="s">
-        <v>691</v>
+      <c r="G105" s="110" t="s">
+        <v>686</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I105" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J105" s="144" t="s">
-        <v>690</v>
+      <c r="J105" s="110" t="s">
+        <v>685</v>
       </c>
       <c r="K105" s="18" t="s">
         <v>220</v>
@@ -24481,14 +24686,14 @@
         <v>220</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N105" s="18"/>
     </row>
     <row r="106" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="46"/>
       <c r="B106" s="64" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>220</v>
@@ -24511,8 +24716,8 @@
       <c r="I106" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J106" s="144" t="s">
-        <v>632</v>
+      <c r="J106" s="110" t="s">
+        <v>627</v>
       </c>
       <c r="K106" s="18" t="s">
         <v>220</v>
@@ -24521,14 +24726,14 @@
         <v>220</v>
       </c>
       <c r="M106" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N106" s="18"/>
     </row>
     <row r="107" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="46"/>
       <c r="B107" s="64" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>220</v>
@@ -24545,8 +24750,8 @@
       <c r="G107" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H107" s="144" t="s">
-        <v>692</v>
+      <c r="H107" s="110" t="s">
+        <v>687</v>
       </c>
       <c r="I107" s="18" t="s">
         <v>220</v>
@@ -24555,20 +24760,20 @@
         <v>316</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L107" s="18" t="s">
         <v>220</v>
       </c>
       <c r="M107" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N107" s="18"/>
     </row>
     <row r="108" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="46"/>
-      <c r="B108" s="145" t="s">
-        <v>693</v>
+      <c r="B108" s="111" t="s">
+        <v>688</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>220</v>
@@ -24577,7 +24782,7 @@
         <v>220</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>220</v>
@@ -24585,8 +24790,8 @@
       <c r="G108" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H108" s="144" t="s">
-        <v>694</v>
+      <c r="H108" s="110" t="s">
+        <v>689</v>
       </c>
       <c r="I108" s="18" t="s">
         <v>220</v>
@@ -24601,14 +24806,14 @@
         <v>220</v>
       </c>
       <c r="M108" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N108" s="18"/>
     </row>
     <row r="109" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="46"/>
       <c r="B109" s="16" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>220</v>
@@ -24626,7 +24831,7 @@
         <v>220</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="I109" s="18" t="s">
         <v>220</v>
@@ -24641,23 +24846,23 @@
         <v>220</v>
       </c>
       <c r="M109" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N109" s="32"/>
     </row>
     <row r="110" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="46"/>
       <c r="B110" s="16" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C110" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="D110" s="144" t="s">
-        <v>695</v>
+      <c r="D110" s="110" t="s">
+        <v>690</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F110" s="18" t="s">
         <v>220</v>
@@ -24666,13 +24871,13 @@
         <v>220</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I110" s="18" t="s">
         <v>220</v>
       </c>
       <c r="J110" s="18" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K110" s="18" t="s">
         <v>220</v>
@@ -24681,14 +24886,14 @@
         <v>220</v>
       </c>
       <c r="M110" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N110" s="18"/>
     </row>
     <row r="111" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="46"/>
       <c r="B111" s="16" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>220</v>
@@ -24706,13 +24911,13 @@
         <v>220</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I111" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J111" s="144" t="s">
-        <v>632</v>
+      <c r="J111" s="110" t="s">
+        <v>627</v>
       </c>
       <c r="K111" s="18" t="s">
         <v>220</v>
@@ -24721,14 +24926,14 @@
         <v>220</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N111" s="18"/>
     </row>
     <row r="112" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="46"/>
-      <c r="B112" s="143" t="s">
-        <v>696</v>
+      <c r="B112" s="109" t="s">
+        <v>691</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>220</v>
@@ -24745,30 +24950,30 @@
       <c r="G112" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H112" s="144" t="s">
-        <v>697</v>
+      <c r="H112" s="110" t="s">
+        <v>692</v>
       </c>
       <c r="I112" s="18" t="s">
         <v>220</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L112" s="18" t="s">
         <v>220</v>
       </c>
       <c r="M112" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N112" s="18"/>
     </row>
     <row r="113" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="46"/>
       <c r="B113" s="16" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>220</v>
@@ -24777,7 +24982,7 @@
         <v>220</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F113" s="18" t="s">
         <v>220</v>
@@ -24786,13 +24991,13 @@
         <v>220</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="J113" s="144" t="s">
-        <v>632</v>
+        <v>427</v>
+      </c>
+      <c r="J113" s="110" t="s">
+        <v>627</v>
       </c>
       <c r="K113" s="18" t="s">
         <v>220</v>
@@ -24801,14 +25006,14 @@
         <v>220</v>
       </c>
       <c r="M113" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N113" s="18"/>
     </row>
     <row r="114" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="46"/>
       <c r="B114" s="16" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>220</v>
@@ -24825,14 +25030,14 @@
       <c r="G114" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H114" s="144" t="s">
-        <v>698</v>
+      <c r="H114" s="110" t="s">
+        <v>693</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J114" s="144" t="s">
-        <v>632</v>
+      <c r="J114" s="110" t="s">
+        <v>627</v>
       </c>
       <c r="K114" s="18" t="s">
         <v>220</v>
@@ -24841,14 +25046,14 @@
         <v>220</v>
       </c>
       <c r="M114" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N114" s="18"/>
     </row>
     <row r="115" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="46"/>
-      <c r="B115" s="143" t="s">
-        <v>699</v>
+      <c r="B115" s="109" t="s">
+        <v>694</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>220</v>
@@ -24865,14 +25070,14 @@
       <c r="G115" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H115" s="144" t="s">
-        <v>700</v>
+      <c r="H115" s="110" t="s">
+        <v>695</v>
       </c>
       <c r="I115" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J115" s="144" t="s">
-        <v>632</v>
+      <c r="J115" s="110" t="s">
+        <v>627</v>
       </c>
       <c r="K115" s="18" t="s">
         <v>220</v>
@@ -24881,57 +25086,57 @@
         <v>220</v>
       </c>
       <c r="M115" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N115" s="18"/>
     </row>
     <row r="116" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="46"/>
       <c r="B116" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="J116" s="110" t="s">
+        <v>627</v>
+      </c>
+      <c r="K116" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="L116" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="D116" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="F116" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="H116" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="I116" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="J116" s="144" t="s">
-        <v>632</v>
-      </c>
-      <c r="K116" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="L116" s="18" t="s">
-        <v>562</v>
-      </c>
       <c r="M116" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N116" s="18"/>
     </row>
     <row r="117" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="46"/>
       <c r="B117" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C117" s="144" t="s">
-        <v>701</v>
+        <v>558</v>
+      </c>
+      <c r="C117" s="110" t="s">
+        <v>696</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>220</v>
@@ -24946,35 +25151,35 @@
         <v>220</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I117" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J117" s="144" t="s">
+      <c r="J117" s="110" t="s">
         <v>330</v>
       </c>
       <c r="K117" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L117" s="18" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="M117" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N117" s="18"/>
     </row>
     <row r="118" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="46"/>
-      <c r="B118" s="143" t="s">
-        <v>702</v>
+      <c r="B118" s="109" t="s">
+        <v>697</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E118" s="18" t="s">
         <v>220</v>
@@ -24986,13 +25191,13 @@
         <v>220</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I118" s="18" t="s">
         <v>220</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K118" s="18" t="s">
         <v>220</v>
@@ -25001,14 +25206,14 @@
         <v>220</v>
       </c>
       <c r="M118" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N118" s="18"/>
     </row>
     <row r="119" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="46"/>
       <c r="B119" s="16" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>220</v>
@@ -25026,13 +25231,13 @@
         <v>220</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>220</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K119" s="18" t="s">
         <v>220</v>
@@ -25041,38 +25246,38 @@
         <v>220</v>
       </c>
       <c r="M119" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N119" s="18"/>
     </row>
     <row r="120" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="46"/>
       <c r="B120" s="16" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E120" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F120" s="144" t="s">
-        <v>703</v>
+      <c r="F120" s="110" t="s">
+        <v>698</v>
       </c>
       <c r="G120" s="18" t="s">
         <v>220</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I120" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J120" s="144" t="s">
-        <v>704</v>
+      <c r="J120" s="110" t="s">
+        <v>699</v>
       </c>
       <c r="K120" s="18" t="s">
         <v>220</v>
@@ -25081,14 +25286,14 @@
         <v>220</v>
       </c>
       <c r="M120" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N120" s="18"/>
     </row>
     <row r="121" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="46"/>
       <c r="B121" s="16" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>220</v>
@@ -25105,14 +25310,14 @@
       <c r="G121" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="H121" s="144" t="s">
-        <v>705</v>
+      <c r="H121" s="110" t="s">
+        <v>700</v>
       </c>
       <c r="I121" s="18" t="s">
         <v>220</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K121" s="18" t="s">
         <v>220</v>
@@ -25121,14 +25326,14 @@
         <v>220</v>
       </c>
       <c r="M121" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N121" s="18"/>
     </row>
     <row r="122" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="46"/>
       <c r="B122" s="16" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>220</v>
@@ -25146,13 +25351,13 @@
         <v>220</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="I122" s="18" t="s">
         <v>220</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K122" s="18" t="s">
         <v>220</v>
@@ -25161,14 +25366,14 @@
         <v>220</v>
       </c>
       <c r="M122" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N122" s="18"/>
     </row>
     <row r="123" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="46"/>
-      <c r="B123" s="143" t="s">
-        <v>706</v>
+      <c r="B123" s="109" t="s">
+        <v>701</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>220</v>
@@ -25177,7 +25382,7 @@
         <v>220</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F123" s="18" t="s">
         <v>220</v>
@@ -25195,35 +25400,35 @@
         <v>220</v>
       </c>
       <c r="K123" s="18" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L123" s="18" t="s">
         <v>220</v>
       </c>
       <c r="M123" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N123" s="18"/>
     </row>
     <row r="124" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="46"/>
       <c r="B124" s="16" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D124" s="144" t="s">
-        <v>707</v>
+      <c r="D124" s="110" t="s">
+        <v>702</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F124" s="18" t="s">
         <v>220</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H124" s="18" t="s">
         <v>220</v>
@@ -25232,7 +25437,7 @@
         <v>220</v>
       </c>
       <c r="J124" s="18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K124" s="18" t="s">
         <v>220</v>
@@ -25241,7 +25446,7 @@
         <v>220</v>
       </c>
       <c r="M124" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N124" s="18"/>
     </row>
@@ -25341,16 +25546,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -25419,8 +25624,8 @@
       <c r="B9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="146" t="s">
-        <v>709</v>
+      <c r="C9" s="112" t="s">
+        <v>704</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>62</v>
@@ -25889,16 +26094,16 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -25939,8 +26144,8 @@
       <c r="C8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="143" t="s">
-        <v>710</v>
+      <c r="D8" s="109" t="s">
+        <v>705</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>69</v>
@@ -26032,8 +26237,8 @@
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="147" t="s">
-        <v>711</v>
+      <c r="D11" s="113" t="s">
+        <v>706</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>107</v>
@@ -26063,8 +26268,8 @@
       <c r="C12" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="144" t="s">
-        <v>712</v>
+      <c r="D12" s="110" t="s">
+        <v>707</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>107</v>
@@ -26122,11 +26327,11 @@
       <c r="B14" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="148" t="s">
-        <v>657</v>
-      </c>
-      <c r="D14" s="144" t="s">
-        <v>713</v>
+      <c r="C14" s="114" t="s">
+        <v>652</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>708</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>107</v>
@@ -26141,8 +26346,8 @@
       <c r="H14" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="144" t="s">
-        <v>714</v>
+      <c r="I14" s="110" t="s">
+        <v>709</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>92</v>
@@ -26156,8 +26361,8 @@
       <c r="C15" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="144" t="s">
-        <v>713</v>
+      <c r="D15" s="110" t="s">
+        <v>708</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>107</v>
@@ -26172,8 +26377,8 @@
       <c r="H15" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="144" t="s">
-        <v>715</v>
+      <c r="I15" s="110" t="s">
+        <v>710</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>92</v>
@@ -26215,8 +26420,8 @@
       <c r="B17" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="146" t="s">
-        <v>659</v>
+      <c r="C17" s="112" t="s">
+        <v>654</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>87</v>
@@ -26234,8 +26439,8 @@
       <c r="H17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="144" t="s">
-        <v>716</v>
+      <c r="I17" s="110" t="s">
+        <v>711</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>92</v>
@@ -26296,10 +26501,10 @@
       <c r="H19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="144" t="s">
-        <v>717</v>
-      </c>
-      <c r="J19" s="144" t="s">
+      <c r="I19" s="110" t="s">
+        <v>712</v>
+      </c>
+      <c r="J19" s="110" t="s">
         <v>92</v>
       </c>
     </row>
@@ -26308,11 +26513,11 @@
       <c r="B20" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="146" t="s">
-        <v>662</v>
-      </c>
-      <c r="D20" s="144" t="s">
-        <v>724</v>
+      <c r="C20" s="112" t="s">
+        <v>657</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>719</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>101</v>
@@ -26404,8 +26609,8 @@
       <c r="C23" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D23" s="144" t="s">
-        <v>718</v>
+      <c r="D23" s="110" t="s">
+        <v>713</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>192</v>
@@ -26544,8 +26749,8 @@
       <c r="H27" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="149" t="s">
-        <v>719</v>
+      <c r="I27" s="115" t="s">
+        <v>714</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>92</v>
@@ -26587,8 +26792,8 @@
       <c r="B29" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C29" s="146" t="s">
-        <v>720</v>
+      <c r="C29" s="112" t="s">
+        <v>715</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>87</v>
@@ -26606,8 +26811,8 @@
       <c r="H29" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="I29" s="149" t="s">
-        <v>721</v>
+      <c r="I29" s="115" t="s">
+        <v>716</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>92</v>
@@ -26618,8 +26823,8 @@
       <c r="B30" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C30" s="146" t="s">
-        <v>722</v>
+      <c r="C30" s="112" t="s">
+        <v>717</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>294</v>
@@ -26634,11 +26839,11 @@
         <f>'Priorización '!H26</f>
         <v>2.1633858267716537</v>
       </c>
-      <c r="H30" s="144" t="s">
+      <c r="H30" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="149" t="s">
-        <v>723</v>
+      <c r="I30" s="115" t="s">
+        <v>718</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>92</v>
@@ -26668,8 +26873,8 @@
       <c r="H31" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="I31" s="149" t="s">
-        <v>723</v>
+      <c r="I31" s="115" t="s">
+        <v>718</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>317</v>
@@ -26816,15 +27021,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="134"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
@@ -26863,8 +27068,8 @@
       <c r="B8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="146" t="s">
-        <v>619</v>
+      <c r="C8" s="112" t="s">
+        <v>614</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>83</v>
@@ -26913,8 +27118,8 @@
       <c r="H9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="144" t="s">
-        <v>725</v>
+      <c r="I9" s="110" t="s">
+        <v>720</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>92</v>
@@ -26928,8 +27133,8 @@
       <c r="C10" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="144" t="s">
-        <v>726</v>
+      <c r="D10" s="110" t="s">
+        <v>721</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>165</v>
@@ -27083,8 +27288,8 @@
       <c r="C15" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="144" t="s">
-        <v>727</v>
+      <c r="D15" s="110" t="s">
+        <v>722</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>133</v>
@@ -27130,8 +27335,8 @@
       <c r="H16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="144" t="s">
-        <v>728</v>
+      <c r="I16" s="110" t="s">
+        <v>723</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>92</v>
@@ -27338,15 +27543,15 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="134"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
@@ -27481,8 +27686,8 @@
       <c r="C11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="143" t="s">
-        <v>729</v>
+      <c r="D11" s="109" t="s">
+        <v>724</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>88</v>
@@ -27497,8 +27702,8 @@
       <c r="H11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="144" t="s">
-        <v>730</v>
+      <c r="I11" s="110" t="s">
+        <v>725</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>92</v>
@@ -27574,8 +27779,8 @@
       <c r="C14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="143" t="s">
-        <v>731</v>
+      <c r="D14" s="109" t="s">
+        <v>726</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>88</v>
@@ -27605,8 +27810,8 @@
       <c r="C15" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="143" t="s">
-        <v>732</v>
+      <c r="D15" s="109" t="s">
+        <v>727</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>88</v>
@@ -27824,16 +28029,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -27859,7 +28064,7 @@
       <c r="H7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="116" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -27871,8 +28076,8 @@
       <c r="B8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="146" t="s">
-        <v>651</v>
+      <c r="C8" s="112" t="s">
+        <v>646</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>87</v>
@@ -27890,8 +28095,8 @@
       <c r="H8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="149" t="s">
-        <v>737</v>
+      <c r="I8" s="115" t="s">
+        <v>732</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>92</v>
@@ -27952,8 +28157,8 @@
       <c r="H10" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="149" t="s">
-        <v>738</v>
+      <c r="I10" s="115" t="s">
+        <v>733</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>92</v>
@@ -27964,11 +28169,11 @@
       <c r="B11" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="146" t="s">
-        <v>739</v>
-      </c>
-      <c r="D11" s="144" t="s">
-        <v>740</v>
+      <c r="C11" s="112" t="s">
+        <v>734</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>735</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>146</v>
@@ -27983,8 +28188,8 @@
       <c r="H11" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="149" t="s">
-        <v>741</v>
+      <c r="I11" s="115" t="s">
+        <v>736</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>92</v>
@@ -27995,8 +28200,8 @@
       <c r="B12" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="146" t="s">
-        <v>654</v>
+      <c r="C12" s="112" t="s">
+        <v>649</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>156</v>
@@ -28014,8 +28219,8 @@
       <c r="H12" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="149" t="s">
-        <v>733</v>
+      <c r="I12" s="115" t="s">
+        <v>728</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>92</v>
@@ -28026,8 +28231,8 @@
       <c r="B13" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="146" t="s">
-        <v>734</v>
+      <c r="C13" s="112" t="s">
+        <v>729</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>160</v>
@@ -28045,8 +28250,8 @@
       <c r="H13" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="149" t="s">
-        <v>735</v>
+      <c r="I13" s="115" t="s">
+        <v>730</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>92</v>
@@ -28099,8 +28304,8 @@
       <c r="H15" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="149" t="s">
-        <v>736</v>
+      <c r="I15" s="115" t="s">
+        <v>731</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>92</v>
@@ -28305,17 +28510,17 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="146" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
     </row>
@@ -28425,8 +28630,8 @@
       <c r="C10" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D10" s="146" t="s">
-        <v>754</v>
+      <c r="D10" s="112" t="s">
+        <v>749</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>150</v>
@@ -28455,11 +28660,11 @@
       <c r="B11" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="146" t="s">
-        <v>626</v>
-      </c>
-      <c r="D11" s="146" t="s">
-        <v>755</v>
+      <c r="C11" s="112" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>750</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>375</v>
@@ -28474,8 +28679,8 @@
       <c r="H11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="146" t="s">
-        <v>756</v>
+      <c r="I11" s="112" t="s">
+        <v>751</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>92</v>
@@ -28606,8 +28811,8 @@
       <c r="H15" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="146" t="s">
-        <v>742</v>
+      <c r="I15" s="112" t="s">
+        <v>737</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>92</v>
@@ -28706,7 +28911,7 @@
         <v>93</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>92</v>
@@ -28717,13 +28922,13 @@
     <row r="19" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>296</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>88</v>
@@ -28739,7 +28944,7 @@
         <v>93</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>92</v>
@@ -28750,7 +28955,7 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>297</v>
@@ -28771,8 +28976,8 @@
       <c r="H20" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="146" t="s">
-        <v>743</v>
+      <c r="I20" s="112" t="s">
+        <v>738</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>92</v>
@@ -28783,7 +28988,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>300</v>
@@ -28805,7 +29010,7 @@
         <v>93</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>92</v>
@@ -28816,7 +29021,7 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>301</v>
@@ -28838,7 +29043,7 @@
         <v>93</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>92</v>
@@ -28849,10 +29054,10 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C23" s="146" t="s">
-        <v>629</v>
+        <v>458</v>
+      </c>
+      <c r="C23" s="112" t="s">
+        <v>624</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>87</v>
@@ -28871,7 +29076,7 @@
         <v>93</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>92</v>
@@ -28882,7 +29087,7 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>307</v>
@@ -28904,7 +29109,7 @@
         <v>93</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J24" s="32" t="s">
         <v>92</v>
@@ -28915,13 +29120,13 @@
     <row r="25" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D25" s="146" t="s">
-        <v>744</v>
+      <c r="D25" s="112" t="s">
+        <v>739</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>101</v>
@@ -28937,7 +29142,7 @@
         <v>90</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J25" s="32" t="s">
         <v>92</v>
@@ -28948,13 +29153,13 @@
     <row r="26" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>312</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>84</v>
@@ -28970,7 +29175,7 @@
         <v>90</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>92</v>
@@ -28981,7 +29186,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>314</v>
@@ -29003,7 +29208,7 @@
         <v>90</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J27" s="32" t="s">
         <v>92</v>
@@ -29014,10 +29219,10 @@
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="C28" s="146" t="s">
-        <v>635</v>
+        <v>488</v>
+      </c>
+      <c r="C28" s="112" t="s">
+        <v>630</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>87</v>
@@ -29036,7 +29241,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J28" s="32" t="s">
         <v>92</v>
@@ -29047,10 +29252,10 @@
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="C29" s="146" t="s">
-        <v>637</v>
+        <v>489</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>632</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>87</v>
@@ -29069,7 +29274,7 @@
         <v>90</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J29" s="32" t="s">
         <v>92</v>
@@ -29080,13 +29285,13 @@
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>321</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>103</v>
@@ -29101,8 +29306,8 @@
       <c r="H30" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="146" t="s">
-        <v>745</v>
+      <c r="I30" s="112" t="s">
+        <v>740</v>
       </c>
       <c r="J30" s="32" t="s">
         <v>92</v>
@@ -29113,13 +29318,13 @@
     <row r="31" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>324</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>101</v>
@@ -29135,7 +29340,7 @@
         <v>90</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J31" s="32" t="s">
         <v>92</v>
@@ -29146,13 +29351,13 @@
     <row r="32" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>326</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>101</v>
@@ -29168,7 +29373,7 @@
         <v>93</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>92</v>
@@ -29179,7 +29384,7 @@
     <row r="33" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>327</v>
@@ -29201,7 +29406,7 @@
         <v>93</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="J33" s="32" t="s">
         <v>92</v>
@@ -29212,10 +29417,10 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="C34" s="146" t="s">
-        <v>641</v>
+        <v>494</v>
+      </c>
+      <c r="C34" s="112" t="s">
+        <v>636</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>87</v>
@@ -29234,7 +29439,7 @@
         <v>93</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="J34" s="32" t="s">
         <v>92</v>
@@ -29245,13 +29450,13 @@
     <row r="35" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>331</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>70</v>
@@ -29267,7 +29472,7 @@
         <v>93</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="J35" s="32" t="s">
         <v>92</v>
@@ -29278,16 +29483,16 @@
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="C36" s="146" t="s">
-        <v>746</v>
+        <v>496</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>741</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>71</v>
@@ -29300,7 +29505,7 @@
         <v>315</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="J36" s="76" t="s">
         <v>317</v>
@@ -29311,13 +29516,13 @@
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="C37" s="146" t="s">
-        <v>642</v>
-      </c>
-      <c r="D37" s="146" t="s">
-        <v>747</v>
+        <v>497</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>637</v>
+      </c>
+      <c r="D37" s="112" t="s">
+        <v>742</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>146</v>
@@ -29333,7 +29538,7 @@
         <v>93</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="J37" s="32" t="s">
         <v>317</v>
@@ -29344,10 +29549,10 @@
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="C38" s="146" t="s">
-        <v>748</v>
+        <v>498</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>743</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>87</v>
@@ -29366,7 +29571,7 @@
         <v>93</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="J38" s="32" t="s">
         <v>317</v>
@@ -29377,10 +29582,10 @@
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="C39" s="146" t="s">
-        <v>749</v>
+        <v>499</v>
+      </c>
+      <c r="C39" s="112" t="s">
+        <v>744</v>
       </c>
       <c r="D39" s="78" t="s">
         <v>87</v>
@@ -29399,7 +29604,7 @@
         <v>93</v>
       </c>
       <c r="I39" s="79" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="J39" s="32" t="s">
         <v>317</v>
@@ -29410,13 +29615,13 @@
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="14" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>334</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E40" s="81" t="s">
         <v>398</v>
@@ -29432,21 +29637,21 @@
         <v>93</v>
       </c>
       <c r="I40" s="80" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="J40" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="131"/>
-      <c r="L40" s="132"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="145"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="14" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>87</v>
@@ -29464,8 +29669,8 @@
       <c r="H41" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="146" t="s">
-        <v>750</v>
+      <c r="I41" s="112" t="s">
+        <v>745</v>
       </c>
       <c r="J41" s="32" t="s">
         <v>92</v>
@@ -29476,7 +29681,7 @@
     <row r="42" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C42" s="83" t="s">
         <v>336</v>
@@ -29498,7 +29703,7 @@
         <v>90</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="J42" s="32" t="s">
         <v>92</v>
@@ -29509,10 +29714,10 @@
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="14" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>87</v>
@@ -29530,8 +29735,8 @@
       <c r="H43" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="146" t="s">
-        <v>751</v>
+      <c r="I43" s="112" t="s">
+        <v>746</v>
       </c>
       <c r="J43" s="32" t="s">
         <v>92</v>
@@ -29542,7 +29747,7 @@
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="14" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>341</v>
@@ -29551,7 +29756,7 @@
         <v>87</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>71</v>
@@ -29563,8 +29768,8 @@
       <c r="H44" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I44" s="146" t="s">
-        <v>752</v>
+      <c r="I44" s="112" t="s">
+        <v>747</v>
       </c>
       <c r="J44" s="32" t="s">
         <v>92</v>
@@ -29575,10 +29780,10 @@
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>87</v>
@@ -29597,7 +29802,7 @@
         <v>90</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="J45" s="32" t="s">
         <v>317</v>
@@ -29608,10 +29813,10 @@
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="14" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>87</v>
@@ -29630,7 +29835,7 @@
         <v>93</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="J46" s="32" t="s">
         <v>92</v>
@@ -29641,10 +29846,10 @@
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="14" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>87</v>
@@ -29663,7 +29868,7 @@
         <v>93</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="J47" s="32" t="s">
         <v>92</v>
@@ -29674,10 +29879,10 @@
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="14" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>87</v>
@@ -29696,7 +29901,7 @@
         <v>90</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="J48" s="32" t="s">
         <v>92</v>
@@ -29707,10 +29912,10 @@
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="14" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>87</v>
@@ -29728,8 +29933,8 @@
       <c r="H49" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="I49" s="146" t="s">
-        <v>753</v>
+      <c r="I49" s="112" t="s">
+        <v>748</v>
       </c>
       <c r="J49" s="32" t="s">
         <v>92</v>
@@ -29740,10 +29945,10 @@
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="14" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>87</v>
@@ -29762,7 +29967,7 @@
         <v>90</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="J50" s="32" t="s">
         <v>92</v>
@@ -29773,10 +29978,10 @@
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="14" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>87</v>
@@ -29795,7 +30000,7 @@
         <v>90</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J51" s="32" t="s">
         <v>92</v>
@@ -30137,16 +30342,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -30164,7 +30369,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" s="34"/>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="147" t="s">
         <v>187</v>
       </c>
     </row>
@@ -30190,7 +30395,7 @@
       <c r="G3" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="135"/>
+      <c r="H3" s="148"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
@@ -32114,7 +32319,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="88" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B68" s="38">
         <v>6</v>
@@ -32144,7 +32349,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B69" s="38">
         <v>5</v>
@@ -32174,7 +32379,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" s="38">
         <v>5</v>
@@ -32204,7 +32409,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="88" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B71" s="38">
         <v>5</v>
@@ -32234,7 +32439,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="88" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B72" s="38">
         <v>5</v>
@@ -32264,7 +32469,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="88" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B73" s="38">
         <v>6</v>
@@ -32294,7 +32499,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="88" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B74" s="38">
         <v>7</v>
@@ -32324,7 +32529,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B75" s="38">
         <v>7</v>
@@ -32354,7 +32559,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B76" s="38">
         <v>6</v>
@@ -32384,7 +32589,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="88" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B77" s="38">
         <v>6</v>
@@ -32414,7 +32619,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="88" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B78" s="38">
         <v>5</v>
@@ -32444,7 +32649,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="88" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B79" s="38">
         <v>6</v>
@@ -32474,7 +32679,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="88" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B80" s="38">
         <v>7</v>
@@ -32504,7 +32709,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="88" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B81" s="38">
         <v>5</v>
@@ -32534,7 +32739,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="88" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B82" s="38">
         <v>5</v>
@@ -32564,7 +32769,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="88" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B83" s="38">
         <v>7</v>
@@ -32594,7 +32799,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="88" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B84" s="38">
         <v>6</v>
@@ -32624,7 +32829,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="88" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B85" s="38">
         <v>6</v>
@@ -32654,7 +32859,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="88" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B86" s="38">
         <v>6</v>
@@ -32684,7 +32889,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="88" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B87" s="38">
         <v>6</v>
@@ -32714,7 +32919,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="88" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B88" s="38">
         <v>6</v>
@@ -32744,7 +32949,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="88" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B89" s="38">
         <v>5</v>
@@ -32774,7 +32979,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="88" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B90" s="38">
         <v>5</v>
@@ -32804,7 +33009,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="88" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B91" s="38">
         <v>5</v>
@@ -32834,7 +33039,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="88" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B92" s="38">
         <v>5</v>
@@ -32864,7 +33069,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="88" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B93" s="38">
         <v>8</v>
@@ -32894,7 +33099,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="88" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B94" s="38">
         <v>7</v>
@@ -32924,7 +33129,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="88" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B95" s="38">
         <v>7</v>
@@ -32954,7 +33159,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="88" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B96" s="38">
         <v>7</v>
@@ -32984,7 +33189,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="88" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B97" s="38">
         <v>8</v>
@@ -33014,7 +33219,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="88" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B98" s="38">
         <v>8</v>
@@ -33044,7 +33249,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="88" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B99" s="38">
         <v>8</v>
@@ -33074,7 +33279,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="88" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B100" s="38">
         <v>8</v>
@@ -33127,7 +33332,7 @@
         <v>100</v>
       </c>
       <c r="H101" s="93" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
